--- a/doc/format fields.xlsx
+++ b/doc/format fields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="28080" windowHeight="14160"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28080" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>Overview of descriptive fields</t>
   </si>
@@ -246,6 +246,27 @@
   </si>
   <si>
     <t>GERMANY</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>[empty]</t>
+  </si>
+  <si>
+    <t>As "June 2000"</t>
+  </si>
+  <si>
+    <t>With comma, not :</t>
+  </si>
+  <si>
+    <t>As "Semifinal, Segment 1"</t>
+  </si>
+  <si>
+    <t>not given?</t>
+  </si>
+  <si>
+    <t>Meltzer (470) vs. Schwarz (451)</t>
   </si>
 </sst>
 </file>
@@ -590,10 +611,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,7 +952,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I17" s="2">
         <v>451</v>
       </c>
@@ -948,9 +969,69 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/doc/format fields.xlsx
+++ b/doc/format fields.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28080" windowHeight="14160"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="28080" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
